--- a/input_files/CSP_storage_case.xlsx
+++ b/input_files/CSP_storage_case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/folders/m_/v6c97p3x1mg6bmvchddj43dc0000gn/T/fz3temp-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7245854-2A1B-CC41-A770-6C39C4D8206E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A1040D-2AE6-F744-917D-AB69246BB6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -290,9 +290,6 @@
     <t>input_files/costs_concentrated_solar.csv</t>
   </si>
   <si>
-    <t>Molten-Salt-store glasspoint</t>
-  </si>
-  <si>
     <t>csp glasspoint</t>
   </si>
   <si>
@@ -315,6 +312,9 @@
   </si>
   <si>
     <t>heat link</t>
+  </si>
+  <si>
+    <t>molten-salt-store glasspoint</t>
   </si>
 </sst>
 </file>
@@ -1210,7 +1210,7 @@
   <dimension ref="A1:O62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1489,7 +1489,7 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1497,7 +1497,7 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1517,7 +1517,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C31" s="6"/>
     </row>
@@ -1719,13 +1719,13 @@
         <v>30</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C51" t="s">
         <v>77</v>
       </c>
       <c r="D51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I51" s="15" t="s">
         <v>79</v>
@@ -1750,16 +1750,16 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" t="s">
         <v>91</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>92</v>
       </c>
-      <c r="C52" t="s">
-        <v>93</v>
-      </c>
       <c r="D52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E52" t="s">
         <v>80</v>
@@ -1771,16 +1771,16 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B53" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C53" t="s">
         <v>83</v>
       </c>
       <c r="D53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I53" s="15" t="s">
         <v>79</v>

--- a/input_files/CSP_storage_case.xlsx
+++ b/input_files/CSP_storage_case.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/folders/m_/v6c97p3x1mg6bmvchddj43dc0000gn/T/fz3temp-2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awongel/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A1040D-2AE6-F744-917D-AB69246BB6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03136054-AC3D-754B-AA69-D728F295CC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1209,8 +1209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
